--- a/Application/Reports/Week 10 (10 Oct 2016)/Quantity Report Week - 10.xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/Quantity Report Week - 10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="23">
   <si>
     <t>Doorstep Chef - Quantity Report 10 Oct 2016</t>
   </si>
@@ -53,13 +53,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Meals</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Standard Meals</t>
@@ -1010,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s" s="7">
         <v>12</v>
@@ -1053,10 +1047,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="11">
         <v>12</v>
@@ -1105,10 +1099,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="15">
         <v>12</v>
@@ -1131,10 +1125,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="17">
         <v>12</v>
@@ -1157,10 +1151,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s" s="19">
         <v>12</v>
@@ -1209,10 +1203,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s" s="23">
         <v>12</v>
@@ -1261,7 +1255,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s" s="27">
         <v>1</v>
@@ -1282,12 +1276,12 @@
         <v>1</v>
       </c>
       <c r="H14" t="s" s="27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="29">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s" s="29">
         <v>1</v>
@@ -1308,12 +1302,12 @@
         <v>1</v>
       </c>
       <c r="H15" t="s" s="29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="31">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s" s="31">
         <v>1</v>
@@ -1334,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s" s="31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1365,7 +1359,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s" s="35">
         <v>1</v>
@@ -1386,12 +1380,12 @@
         <v>1</v>
       </c>
       <c r="H18" t="s" s="35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="37">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s" s="37">
         <v>1</v>
@@ -1412,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s" s="37">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Application/Reports/Week 10 (10 Oct 2016)/Quantity Report Week - 10.xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/Quantity Report Week - 10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="34">
   <si>
     <t>Doorstep Chef - Quantity Report 10 Oct 2016</t>
   </si>
@@ -50,37 +50,70 @@
     <t>Orders</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>Meals</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>Standard Meals</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>Low Carb Meals</t>
   </si>
   <si>
     <t>Kiddies Meals</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Totals</t>
   </si>
   <si>
     <t>Standard</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>Low Carb</t>
   </si>
   <si>
     <t>Kiddies</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Total Clients</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>Total Individuals</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
 </sst>
 </file>
@@ -1001,22 +1034,22 @@
         <v>12</v>
       </c>
       <c r="C4" t="s" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1047,28 +1080,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="11">
-        <v>12</v>
-      </c>
       <c r="D6" t="s" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s" s="11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1099,80 +1132,80 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="15">
-        <v>12</v>
-      </c>
       <c r="D8" t="s" s="15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s" s="15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="17">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="17">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="17">
-        <v>12</v>
-      </c>
       <c r="D9" t="s" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="19">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s" s="19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="19">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s" s="19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s" s="19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s" s="19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s" s="19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s" s="19">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1203,28 +1236,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="23">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s" s="23">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s" s="23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s" s="23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s" s="23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s" s="23">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1255,7 +1288,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="27">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="27">
         <v>1</v>
@@ -1276,12 +1309,12 @@
         <v>1</v>
       </c>
       <c r="H14" t="s" s="27">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="29">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="29">
         <v>1</v>
@@ -1302,12 +1335,12 @@
         <v>1</v>
       </c>
       <c r="H15" t="s" s="29">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="31">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="31">
         <v>1</v>
@@ -1328,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s" s="31">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1359,7 +1392,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="35">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="35">
         <v>1</v>
@@ -1380,12 +1413,12 @@
         <v>1</v>
       </c>
       <c r="H18" t="s" s="35">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="37">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="37">
         <v>1</v>
@@ -1406,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s" s="37">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
